--- a/Data/cofactorID.xlsx
+++ b/Data/cofactorID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA3958B-3BB0-D347-BD94-18A5C87A3CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E3B2A-AB22-2341-99A7-A24DB02B8634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36240" yWindow="2800" windowWidth="19180" windowHeight="17060" activeTab="1" xr2:uid="{09C3C5E7-30A4-894F-8C0E-67DD9902D3D2}"/>
+    <workbookView xWindow="-36420" yWindow="1680" windowWidth="19180" windowHeight="17060" xr2:uid="{09C3C5E7-30A4-894F-8C0E-67DD9902D3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="PDBe" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>PDBe_id</t>
   </si>
@@ -175,9 +175,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>PYRIDOXAL-5''-PHOSPHATE</t>
-  </si>
-  <si>
     <t>PLP</t>
   </si>
   <si>
@@ -256,13 +253,16 @@
     <t>Mn(2+)</t>
   </si>
   <si>
-    <t>pyridoxal 5-phosphate</t>
-  </si>
-  <si>
     <t>thiamine diphosphate</t>
   </si>
   <si>
     <t>Zn(2+)</t>
+  </si>
+  <si>
+    <t>pyridoxal 5'-phosphate</t>
+  </si>
+  <si>
+    <t>PYRIDOXAL-5'-PHOSPHATE</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE2486F-52D6-994E-8F4B-E5CCEAB5DDE6}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,58 +819,58 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C92989-869B-DA4D-9FE4-0F1C073B1D5C}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,31 +901,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -941,7 +941,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,12 +957,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -975,66 +981,66 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cofactorID.xlsx
+++ b/Data/cofactorID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278E3B2A-AB22-2341-99A7-A24DB02B8634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5D1AB-D8A9-BB4C-A70D-B0415C2FCCE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36420" yWindow="1680" windowWidth="19180" windowHeight="17060" xr2:uid="{09C3C5E7-30A4-894F-8C0E-67DD9902D3D2}"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="26620" windowHeight="20540" xr2:uid="{09C3C5E7-30A4-894F-8C0E-67DD9902D3D2}"/>
   </bookViews>
   <sheets>
     <sheet name="PDBe" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>PDBe_id</t>
   </si>
@@ -88,15 +88,9 @@
     <t>COPPER (II) ION</t>
   </si>
   <si>
-    <t>CU</t>
-  </si>
-  <si>
     <t>COPPER (I) ION</t>
   </si>
   <si>
-    <t>CU1</t>
-  </si>
-  <si>
     <t>FLAVIN-ADENINE DINUCLEOTIDE</t>
   </si>
   <si>
@@ -106,15 +100,9 @@
     <t>FE (III) ION</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>FE (II) ION</t>
   </si>
   <si>
-    <t>FE2</t>
-  </si>
-  <si>
     <t>FLAVIN MONONUCLEOTIDE</t>
   </si>
   <si>
@@ -202,18 +190,12 @@
     <t>ZN</t>
   </si>
   <si>
-    <t>HEME</t>
-  </si>
-  <si>
     <t>FE2/S2 (INORGANIC) CLUSTER</t>
   </si>
   <si>
     <t>IRON/SULFUR CLUSTER</t>
   </si>
   <si>
-    <t>ISC</t>
-  </si>
-  <si>
     <t>[2Fe-2S] cluster</t>
   </si>
   <si>
@@ -263,6 +245,42 @@
   </si>
   <si>
     <t>PYRIDOXAL-5'-PHOSPHATE</t>
+  </si>
+  <si>
+    <t>ISC_2FE2S</t>
+  </si>
+  <si>
+    <t>ISC_3FE4S</t>
+  </si>
+  <si>
+    <t>ISC_4FE4S</t>
+  </si>
+  <si>
+    <t>HEME_A</t>
+  </si>
+  <si>
+    <t>HEME_C</t>
+  </si>
+  <si>
+    <t>CU_II</t>
+  </si>
+  <si>
+    <t>CU_I</t>
+  </si>
+  <si>
+    <t>FE_III</t>
+  </si>
+  <si>
+    <t>FE_II</t>
+  </si>
+  <si>
+    <t>PROTOPORPHYRIN IX CONTAINING FE</t>
+  </si>
+  <si>
+    <t>Cu(2+)</t>
+  </si>
+  <si>
+    <t>HEME_B</t>
   </si>
 </sst>
 </file>
@@ -614,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE2486F-52D6-994E-8F4B-E5CCEAB5DDE6}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
@@ -622,7 +640,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,183 +712,191 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -880,10 +906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C92989-869B-DA4D-9FE4-0F1C073B1D5C}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,31 +927,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -933,7 +959,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -941,106 +967,114 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
